--- a/data/entities/entity_exercise.xlsx
+++ b/data/entities/entity_exercise.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17540" windowHeight="12520" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,30 @@
           <t>The Mean Damage Ratio, defined as MDR=MDD*PPA 
 just for check, not used in the model
 Note: in older models, MDR has been used directly (some disadvantages, but often historically the only number one could calculate based on simple, crude and coarse loss data)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>the 2-digit peril identifier, e.g. TC for Tropical Cyclone wind, TS for surge, TR for rain, WS for European winter strom, EQ for earthquake. Matches with hazard.peril_ID. If empty, use the damage function irrespective of peril (i.e. the user needs to know which entity to expose to which peril)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>climada_damagefunction_generate(0:5:120,25,1,0.375,'s-shape','TC',0);</t>
         </r>
       </text>
     </comment>
@@ -385,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>Latitude</t>
   </si>
@@ -712,6 +736,12 @@
   <si>
     <t>risk transfer discounted</t>
   </si>
+  <si>
+    <t>peril_ID</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
 </sst>
 </file>
 
@@ -847,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -885,6 +915,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -898,7 +937,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -916,9 +955,6 @@
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -941,9 +977,6 @@
     <xf numFmtId="43" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -975,6 +1008,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1530,11 +1570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-309168304"/>
-        <c:axId val="-309157232"/>
+        <c:axId val="1602800688"/>
+        <c:axId val="1602811760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-309168304"/>
+        <c:axId val="1602800688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,12 +1648,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309157232"/>
+        <c:crossAx val="1602811760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-309157232"/>
+        <c:axId val="1602811760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1657,7 +1697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-309168304"/>
+        <c:crossAx val="1602800688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2143,11 +2183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-308263952"/>
-        <c:axId val="-308255744"/>
+        <c:axId val="1602917216"/>
+        <c:axId val="1602925424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-308263952"/>
+        <c:axId val="1602917216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2221,12 +2261,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-308255744"/>
+        <c:crossAx val="1602925424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-308255744"/>
+        <c:axId val="1602925424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2270,7 +2310,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-308263952"/>
+        <c:crossAx val="1602917216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2756,11 +2796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-308183360"/>
-        <c:axId val="-308175152"/>
+        <c:axId val="1602997232"/>
+        <c:axId val="1603005440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-308183360"/>
+        <c:axId val="1602997232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,12 +2874,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-308175152"/>
+        <c:crossAx val="1603005440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-308175152"/>
+        <c:axId val="1603005440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -2883,7 +2923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-308183360"/>
+        <c:crossAx val="1602997232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2975,13 +3015,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -3007,13 +3047,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3039,13 +3079,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -3337,7 +3377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3367,7 +3407,7 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="15" t="s">
@@ -8106,573 +8146,666 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12" style="17" customWidth="1"/>
-    <col min="4" max="5" width="10.5" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="17"/>
+    <col min="1" max="1" width="12" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="56" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="18">
+      <c r="F1" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="58">
         <v>2</v>
       </c>
-      <c r="B2" s="18">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="B2" s="58">
+        <v>0</v>
+      </c>
+      <c r="C2" s="58">
+        <v>0</v>
+      </c>
+      <c r="D2" s="58">
+        <v>0</v>
+      </c>
+      <c r="E2" s="58">
         <f t="shared" ref="E2:E13" si="0">C2*D2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="18">
+      <c r="F2" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="58">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="58">
         <v>10</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="58">
         <v>0.01</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="58">
         <v>0.01</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="58">
         <f t="shared" si="0"/>
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="18">
+      <c r="F3" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="58">
         <v>2</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="58">
         <v>20</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="58">
         <v>0.02</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="58">
         <v>0.01</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="58">
         <f t="shared" si="0"/>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="18">
+      <c r="F4" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="58">
         <v>2</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="58">
         <v>30</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="58">
         <v>0.03</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="58">
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="58">
         <f t="shared" si="0"/>
         <v>1.7099999999999997E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="18">
+      <c r="F5" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="58">
         <v>2</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="58">
         <v>40</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="58">
         <v>0.1</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="58">
         <v>0.1</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="58">
         <f t="shared" si="0"/>
         <v>1.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="18">
+      <c r="F6" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="58">
         <v>2</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="58">
         <v>50</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="58">
         <v>0.15</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="58">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="58">
         <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="18">
+      <c r="F7" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="58">
         <v>2</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="58">
         <v>60</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="58">
         <v>0.2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="58">
         <v>0.17700000000000002</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="58">
         <f t="shared" si="0"/>
         <v>3.5400000000000008E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="18">
+      <c r="F8" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="58">
         <v>2</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="58">
         <v>70</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="58">
         <v>0.3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="58">
         <v>0.214</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="58">
         <f t="shared" si="0"/>
         <v>6.4199999999999993E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="18">
+      <c r="F9" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="58">
         <v>2</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="58">
         <v>80</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="58">
         <v>0.4</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="58">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="58">
         <f t="shared" si="0"/>
         <v>0.11200000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="18">
+      <c r="F10" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="58">
         <v>2</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="58">
         <v>90</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="58">
         <v>0.45</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="58">
         <v>0.34</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="58">
         <f t="shared" si="0"/>
         <v>0.15300000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="18">
+      <c r="F11" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="58">
         <v>2</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="58">
         <v>100</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="58">
         <v>0.5</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="58">
         <v>0.4</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="58">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="18">
+      <c r="F12" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="58">
         <v>2</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="58">
         <v>110</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="58">
         <v>0.5</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="58">
         <v>0.5</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="58">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
-        <v>1</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0</v>
-      </c>
-      <c r="D14" s="42">
-        <v>0</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
-        <v>1</v>
-      </c>
-      <c r="B15" s="19">
+      <c r="F13" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="59">
+        <v>1</v>
+      </c>
+      <c r="B14" s="59">
+        <v>0</v>
+      </c>
+      <c r="C14" s="59">
+        <v>0</v>
+      </c>
+      <c r="D14" s="60">
+        <v>0</v>
+      </c>
+      <c r="E14" s="60">
+        <v>0</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="59">
+        <v>1</v>
+      </c>
+      <c r="B15" s="59">
         <v>20</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="59">
         <f t="shared" ref="C15:C22" si="1">E15/D15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="60">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E15" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
-        <v>1</v>
-      </c>
-      <c r="B16" s="19">
+      <c r="E15" s="60">
+        <v>0</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="59">
+        <v>1</v>
+      </c>
+      <c r="B16" s="59">
         <v>30</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="59">
         <f>E16/D16</f>
         <v>2.380952380952381E-4</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="60">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="60">
         <v>1.0000000000000001E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="19">
-        <v>1</v>
-      </c>
-      <c r="B17" s="19">
+      <c r="F16" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="59">
+        <v>1</v>
+      </c>
+      <c r="B17" s="59">
         <v>40</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="59">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="60">
         <v>0.15</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="60">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="19">
-        <v>1</v>
-      </c>
-      <c r="B18" s="19">
+      <c r="F17" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="59">
+        <v>1</v>
+      </c>
+      <c r="B18" s="59">
         <v>50</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="59">
         <f t="shared" si="1"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="60">
         <v>0.3</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="60">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="19">
+      <c r="F18" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="59">
+        <v>1</v>
+      </c>
+      <c r="B19" s="59">
         <v>60</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="59">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="60">
         <v>0.5</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="60">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="19">
-        <v>1</v>
-      </c>
-      <c r="B20" s="19">
+      <c r="F19" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="59">
+        <v>1</v>
+      </c>
+      <c r="B20" s="59">
         <v>70</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="59">
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="D20" s="42">
+      <c r="D20" s="60">
         <v>0.75</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="60">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="19">
-        <v>1</v>
-      </c>
-      <c r="B21" s="19">
+      <c r="F20" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="59">
+        <v>1</v>
+      </c>
+      <c r="B21" s="59">
         <v>80</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="59">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="D21" s="42">
+      <c r="D21" s="60">
         <v>0.8</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="60">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="19">
-        <v>1</v>
-      </c>
-      <c r="B22" s="19">
+      <c r="F21" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="59">
+        <v>1</v>
+      </c>
+      <c r="B22" s="59">
         <v>100</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="59">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D22" s="42">
+      <c r="D22" s="60">
         <v>0.9</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="60">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="18">
+      <c r="F22" s="59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="58">
         <v>3</v>
       </c>
-      <c r="B23" s="18">
-        <v>0</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0</v>
-      </c>
-      <c r="D23" s="43">
-        <v>0</v>
-      </c>
-      <c r="E23" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="18">
+      <c r="B23" s="58">
+        <v>0</v>
+      </c>
+      <c r="C23" s="58">
+        <v>0</v>
+      </c>
+      <c r="D23" s="61">
+        <v>0</v>
+      </c>
+      <c r="E23" s="62">
+        <v>0</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="58">
         <v>3</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="58">
         <v>20</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="58">
         <f>E24/D24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="61">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="E24" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="18">
+      <c r="E24" s="62">
+        <v>0</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="58">
         <v>3</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="58">
         <v>30</v>
       </c>
-      <c r="C25" s="18">
-        <v>0</v>
-      </c>
-      <c r="D25" s="43">
+      <c r="C25" s="58">
+        <v>0</v>
+      </c>
+      <c r="D25" s="61">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="E25" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="18">
+      <c r="E25" s="62">
+        <v>0</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="58">
         <v>3</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="58">
         <v>40</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="58">
         <f t="shared" ref="C26:C31" si="2">E26/D26</f>
         <v>7.0422535211267616E-3</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="61">
         <v>0.14199999999999999</v>
       </c>
-      <c r="E26" s="44">
+      <c r="E26" s="62">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="18">
+      <c r="F26" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="58">
         <v>3</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="58">
         <v>50</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="58">
         <f t="shared" si="2"/>
         <v>3.5087719298245619E-2</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="61">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E27" s="44">
+      <c r="E27" s="62">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="18">
+      <c r="F27" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="58">
         <v>3</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="58">
         <v>60</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="58">
         <f t="shared" si="2"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="61">
         <v>0.45</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="62">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="18">
+      <c r="F28" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="58">
         <v>3</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="58">
         <v>70</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="58">
         <f t="shared" si="2"/>
         <v>0.23611111111111113</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="61">
         <v>0.72</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E29" s="62">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="18">
+      <c r="F29" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="58">
         <v>3</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="58">
         <v>80</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="58">
         <f>E30/D30</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="61">
         <v>0.8</v>
       </c>
-      <c r="E30" s="44">
+      <c r="E30" s="62">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="18">
+      <c r="F30" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="58">
         <v>3</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="58">
         <v>100</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="58">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="61">
         <v>0.9</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="62">
         <v>0.45</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -8711,34 +8844,34 @@
       <c r="C1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="G1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="53" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8746,18 +8879,18 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="55">
         <f>_measures_details!B15</f>
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="42" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="1">
@@ -8772,7 +8905,7 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="42" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="1">
@@ -8782,213 +8915,213 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="41">
         <f>_measures_details!B26</f>
         <v>4227535701.1436005</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="39">
         <v>-0.08</v>
       </c>
-      <c r="E3" s="45">
-        <v>0</v>
-      </c>
-      <c r="F3" s="48" t="s">
+      <c r="E3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="45">
-        <v>1</v>
-      </c>
-      <c r="H3" s="45">
-        <v>0</v>
-      </c>
-      <c r="I3" s="45">
+      <c r="G3" s="39">
+        <v>1</v>
+      </c>
+      <c r="H3" s="39">
+        <v>0</v>
+      </c>
+      <c r="I3" s="39">
         <v>0.96699999999999997</v>
       </c>
-      <c r="J3" s="45">
-        <v>0</v>
-      </c>
-      <c r="K3" s="48" t="s">
+      <c r="J3" s="39">
+        <v>0</v>
+      </c>
+      <c r="K3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="45">
-        <v>0</v>
-      </c>
-      <c r="M3" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+      <c r="L3" s="39">
+        <v>0</v>
+      </c>
+      <c r="M3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="41">
         <f>_measures_details!B34</f>
         <v>1676532973.9000134</v>
       </c>
-      <c r="D4" s="45">
-        <v>0</v>
-      </c>
-      <c r="E4" s="45">
-        <v>0</v>
-      </c>
-      <c r="F4" s="48" t="s">
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="39">
         <v>0.92</v>
       </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="45">
+      <c r="H4" s="39">
+        <v>0</v>
+      </c>
+      <c r="I4" s="39">
         <v>0.99</v>
       </c>
-      <c r="J4" s="45">
-        <v>0</v>
-      </c>
-      <c r="K4" s="48" t="s">
+      <c r="J4" s="39">
+        <v>0</v>
+      </c>
+      <c r="K4" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="45">
-        <v>0</v>
-      </c>
-      <c r="M4" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="L4" s="39">
+        <v>0</v>
+      </c>
+      <c r="M4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="41">
         <f>_measures_details!B43</f>
         <v>48673582747.200645</v>
       </c>
-      <c r="D5" s="45">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
+      <c r="D5" s="39">
+        <v>0</v>
+      </c>
+      <c r="E5" s="39">
         <f>1/15</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="45">
-        <v>1</v>
-      </c>
-      <c r="H5" s="45">
-        <v>0</v>
-      </c>
-      <c r="I5" s="45">
-        <v>1</v>
-      </c>
-      <c r="J5" s="45">
-        <v>0</v>
-      </c>
-      <c r="K5" s="48" t="s">
+      <c r="G5" s="39">
+        <v>1</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39">
+        <v>1</v>
+      </c>
+      <c r="J5" s="39">
+        <v>0</v>
+      </c>
+      <c r="K5" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="45">
-        <v>0</v>
-      </c>
-      <c r="M5" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="45" t="s">
+      <c r="L5" s="39">
+        <v>0</v>
+      </c>
+      <c r="M5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="41">
         <f>_measures_details!B22</f>
         <v>92040064762.894821</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="39">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E6" s="45">
-        <v>0</v>
-      </c>
-      <c r="F6" s="48" t="s">
+      <c r="E6" s="39">
+        <v>0</v>
+      </c>
+      <c r="F6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="39">
         <v>0.99199999999999999</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="39">
         <v>-0.02</v>
       </c>
-      <c r="I6" s="45">
-        <v>1</v>
-      </c>
-      <c r="J6" s="45">
-        <v>0</v>
-      </c>
-      <c r="K6" s="48" t="s">
+      <c r="I6" s="39">
+        <v>1</v>
+      </c>
+      <c r="J6" s="39">
+        <v>0</v>
+      </c>
+      <c r="K6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="45">
-        <v>0</v>
-      </c>
-      <c r="M6" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
+      <c r="L6" s="39">
+        <v>0</v>
+      </c>
+      <c r="M6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="41">
         <v>2800000000</v>
       </c>
-      <c r="D7" s="45">
-        <v>0</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="48" t="s">
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="45">
-        <v>1</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-      <c r="I7" s="45">
-        <v>1</v>
-      </c>
-      <c r="J7" s="45">
-        <v>0</v>
-      </c>
-      <c r="K7" s="45" t="s">
+      <c r="G7" s="39">
+        <v>1</v>
+      </c>
+      <c r="H7" s="39">
+        <v>0</v>
+      </c>
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7" s="39">
+        <v>0</v>
+      </c>
+      <c r="K7" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="45">
-        <v>0</v>
-      </c>
-      <c r="M7" s="45">
+      <c r="L7" s="39">
+        <v>0</v>
+      </c>
+      <c r="M7" s="39">
         <v>0</v>
       </c>
     </row>
@@ -8996,10 +9129,10 @@
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="55">
         <f>_discounting_sheet!L4</f>
         <v>0</v>
       </c>
@@ -9009,7 +9142,7 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="42" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="1">
@@ -9024,11 +9157,11 @@
       <c r="J8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="49" t="s">
+      <c r="K8" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9665,7 +9798,7 @@
       <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="32">
         <v>0</v>
       </c>
     </row>
@@ -9730,7 +9863,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="21">
+      <c r="B8" s="18">
         <f>B5/B4</f>
         <v>1</v>
       </c>
@@ -9776,11 +9909,11 @@
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="22">
         <f>B8</f>
         <v>1</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="34" t="s">
         <v>50</v>
       </c>
       <c r="I11" s="1">
@@ -9990,26 +10123,26 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="34" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="12"/>
@@ -10018,7 +10151,7 @@
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
@@ -10028,7 +10161,7 @@
       <c r="A8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
@@ -10038,7 +10171,7 @@
       <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="35">
         <f>B6*B7*B8</f>
         <v>0</v>
       </c>
@@ -10054,7 +10187,7 @@
       <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
@@ -10075,7 +10208,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B14" s="3">
@@ -10099,19 +10232,19 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
@@ -10151,19 +10284,19 @@
       <c r="D22" s="14"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -10189,19 +10322,19 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -10265,19 +10398,19 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -10319,7 +10452,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="34" t="s">
         <v>83</v>
       </c>
       <c r="B41" s="1">
@@ -10387,41 +10520,41 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="55" customFormat="1" ht="39" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:12" s="49" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+      <c r="A3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="52" t="s">
         <v>92</v>
       </c>
     </row>
@@ -10433,43 +10566,43 @@
         <f>discount!C14</f>
         <v>0.02</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <f>_measures_details!B13</f>
         <v>0</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="25">
         <f>C4+D5/(1+$B5)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <f t="shared" ref="D4:F20" si="0">E4+F5/(1+$B5)</f>
         <v>4227535701.1436005</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33+_measures_details!B30</f>
         <v>1605250000</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="30">
         <f>G4+H5/(1+$B5)</f>
         <v>1676532973.9000134</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="27">
         <f>I4+J5/(1+$B5)</f>
         <v>3673582747.2006459</v>
       </c>
-      <c r="K4" s="54">
+      <c r="K4" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="27">
         <f>K4+L5/(1+$B5)</f>
         <v>0</v>
       </c>
@@ -10482,42 +10615,42 @@
         <f>discount!C15</f>
         <v>0.02</v>
       </c>
-      <c r="C5" s="27">
-        <v>0</v>
-      </c>
-      <c r="D5" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <f t="shared" si="0"/>
         <v>4016286415.1664724</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="31">
         <f t="shared" ref="H5:H20" si="1">G5+H6/(1+$B6)</f>
         <v>72708633.37801373</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="28">
         <f t="shared" ref="J5:L20" si="2">I5+J6/(1+$B6)</f>
         <v>3490014402.144659</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10530,42 +10663,42 @@
         <f>discount!C16</f>
         <v>0.02</v>
       </c>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="28">
+      <c r="C6" s="24">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
         <f>C6+D7/(1+$B7)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <f t="shared" si="0"/>
         <v>3800812143.4698019</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="31">
         <f t="shared" si="1"/>
         <v>68807806.045574009</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="28">
         <f t="shared" si="2"/>
         <v>3302774690.1875525</v>
       </c>
-      <c r="K6" s="54">
+      <c r="K6" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10578,42 +10711,42 @@
         <f>discount!C17</f>
         <v>0.02</v>
       </c>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="C7" s="24">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="28">
         <f t="shared" si="0"/>
         <v>3581028386.3391981</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="31">
         <f t="shared" si="1"/>
         <v>64828962.166485496</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="28">
         <f t="shared" si="2"/>
         <v>3111790183.9913034</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10626,42 +10759,42 @@
         <f>discount!C18</f>
         <v>0.02</v>
       </c>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="C8" s="24">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <f t="shared" si="0"/>
         <v>3356848954.0659823</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="31">
         <f t="shared" si="1"/>
         <v>60770541.409815207</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="28">
         <f t="shared" si="2"/>
         <v>2916985987.6711297</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10674,42 +10807,42 @@
         <f>discount!C19</f>
         <v>0.02</v>
       </c>
-      <c r="C9" s="27">
-        <v>0</v>
-      </c>
-      <c r="D9" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="C9" s="24">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="28">
         <f t="shared" si="0"/>
         <v>3128185933.1473022</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="31">
         <f t="shared" si="1"/>
         <v>56630952.238011509</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="28">
         <f t="shared" si="2"/>
         <v>2718285707.4245524</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10722,43 +10855,43 @@
         <f>discount!C20</f>
         <v>0.02</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="24">
         <f>_measures_details!B14</f>
         <v>0</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="25">
         <f>C10+D11/(1+$B11)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="28">
         <f t="shared" si="0"/>
         <v>2894949651.8102484</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="31">
         <f t="shared" si="1"/>
         <v>52408571.282771744</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="28">
         <f t="shared" si="2"/>
         <v>2515611421.5730433</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10771,42 +10904,42 @@
         <f>discount!C21</f>
         <v>0.02</v>
       </c>
-      <c r="C11" s="27">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="28">
         <f t="shared" si="0"/>
         <v>2657048644.8464532</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="31">
         <f t="shared" si="1"/>
         <v>48101742.708427176</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="28">
         <f t="shared" si="2"/>
         <v>2308883650.0045042</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10819,42 +10952,42 @@
         <f>discount!C22</f>
         <v>0.02</v>
       </c>
-      <c r="C12" s="27">
-        <v>0</v>
-      </c>
-      <c r="D12" s="28">
+      <c r="C12" s="24">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25">
         <f>C12+D13/(1+$B13)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <f t="shared" si="0"/>
         <v>2414389617.7433825</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="31">
         <f t="shared" si="1"/>
         <v>43708777.562595718</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="28">
         <f t="shared" si="2"/>
         <v>2098021323.0045946</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10867,42 +11000,42 @@
         <f>discount!C23</f>
         <v>0.02</v>
       </c>
-      <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="29">
+      <c r="C13" s="24">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="28">
         <f t="shared" si="0"/>
         <v>2166877410.0982499</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="31">
         <f t="shared" si="1"/>
         <v>39227953.113847636</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="28">
         <f t="shared" si="2"/>
         <v>1882941749.4646864</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10915,42 +11048,42 @@
         <f>discount!C24</f>
         <v>0.02</v>
       </c>
-      <c r="C14" s="27">
-        <v>0</v>
-      </c>
-      <c r="D14" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="29">
+      <c r="C14" s="24">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="28">
         <f t="shared" si="0"/>
         <v>1914414958.300215</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="31">
         <f t="shared" si="1"/>
         <v>34657512.176124588</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="28">
         <f t="shared" si="2"/>
         <v>1663560584.4539802</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10963,42 +11096,42 @@
         <f>discount!C25</f>
         <v>0.02</v>
       </c>
-      <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="29">
+      <c r="C15" s="24">
+        <v>0</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="28">
         <f t="shared" si="0"/>
         <v>1656903257.4662194</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="31">
         <f t="shared" si="1"/>
         <v>29995662.419647075</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="28">
         <f t="shared" si="2"/>
         <v>1439791796.1430597</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11011,43 +11144,43 @@
         <f>discount!C26</f>
         <v>0.02</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="24">
         <f>_measures_details!B14</f>
         <v>0</v>
       </c>
-      <c r="D16" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="D16" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="28">
         <f t="shared" si="0"/>
         <v>1394241322.6155438</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="31">
         <f t="shared" si="1"/>
         <v>25240575.668040019</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="28">
         <f t="shared" si="2"/>
         <v>1211547632.0659208</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11060,42 +11193,42 @@
         <f>discount!C27</f>
         <v>0.02</v>
       </c>
-      <c r="C17" s="27">
-        <v>0</v>
-      </c>
-      <c r="D17" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="29">
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="28">
         <f t="shared" si="0"/>
         <v>1126326149.0678546</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="31">
         <f t="shared" si="1"/>
         <v>20390387.181400821</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="28">
         <f t="shared" si="2"/>
         <v>978738584.70723927</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11108,42 +11241,42 @@
         <f>discount!C28</f>
         <v>0.02</v>
       </c>
-      <c r="C18" s="27">
-        <v>0</v>
-      </c>
-      <c r="D18" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="29">
+      <c r="C18" s="24">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
         <v>853052672.04921174</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="31">
         <f t="shared" si="1"/>
         <v>15443194.925028834</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="28">
         <f t="shared" si="2"/>
         <v>741273356.40138412</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11156,42 +11289,42 @@
         <f>discount!C29</f>
         <v>0.02</v>
       </c>
-      <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="29">
+      <c r="C19" s="24">
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="28">
         <f t="shared" si="0"/>
         <v>574313725.49019599</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="31">
         <f t="shared" si="1"/>
         <v>10397058.823529411</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="28">
         <f t="shared" si="2"/>
         <v>499058823.52941179</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11204,42 +11337,42 @@
         <f>discount!C30</f>
         <v>0.02</v>
       </c>
-      <c r="C20" s="27">
-        <v>0</v>
-      </c>
-      <c r="D20" s="28">
+      <c r="C20" s="24">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25">
         <f>C20+D21/(1+$B21)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="26">
         <f>_measures_details!$B$25</f>
         <v>290000000</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="28">
         <f t="shared" si="0"/>
         <v>290000000</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="29">
         <f>_measures_details!$B$31+_measures_details!$B$32+_measures_details!$B$33</f>
         <v>5250000</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="31">
         <f t="shared" si="1"/>
         <v>5250000</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="26">
         <f>_measures_details!$B$42</f>
         <v>252000000</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="28">
         <f t="shared" si="2"/>
         <v>252000000</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="48">
         <f>measures!$M$8*0.02</f>
         <v>0</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
